--- a/biology/Botanique/Scaevola_aemula/Scaevola_aemula.xlsx
+++ b/biology/Botanique/Scaevola_aemula/Scaevola_aemula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scaevola aemula est un petit arbuste de la famille des Goodeniaceae, originaire du sud de l'Australie. Haut de 50 cm, il produit des fleurs blanches ou bleues groupées en épis mesurant jusqu'à 24 cm de long, d'août à mars dans son aire de répartition. Les fruits sont des baies rondes, frippées de 4,5 mm de diamètre.
 L'espèce pousse en Australie-Occidentale, Australie-Méridionale, au Victoria et en Nouvelle-Galles du Sud.
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lobelia aemula (R.Br.) Kuntze
 Merkusia sinuata (R.Br.) de Vriese
